--- a/svn/SVN版本库.xlsx
+++ b/svn/SVN版本库.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>doc</t>
   </si>
@@ -494,6 +494,16 @@
   <si>
     <t>ASMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组资源管理平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航班费用审核系统</t>
+  </si>
+  <si>
+    <t>资质管理系统</t>
   </si>
 </sst>
 </file>
@@ -947,7 +957,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1246,7 +1256,7 @@
         <v>11</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G11" s="6">
         <v>43161</v>
@@ -1266,7 +1276,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G12" s="6">
         <v>43109</v>
@@ -1281,7 +1291,9 @@
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
@@ -1301,7 +1313,9 @@
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1335,9 @@
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="D15" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>15</v>
       </c>

--- a/svn/SVN版本库.xlsx
+++ b/svn/SVN版本库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="SVN版本库" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="104">
   <si>
     <t>doc</t>
   </si>
@@ -191,10 +191,6 @@
   </si>
   <si>
     <t>s_test</t>
-  </si>
-  <si>
-    <t>归档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -206,19 +202,6 @@
         <charset val="134"/>
       </rPr>
       <t>杨轩</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>归档</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -441,10 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://10.88.22.18/svn/m_efb/home-efb-vip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>s_abc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -453,10 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://10.88.22.18/svn/s_abc/code/trunk/sfa_abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>飞机动态监控系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -469,48 +444,128 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://10.88.22.18/svn/m_testgroup/doc/测试管理/工作报告/03_2018年度工作报告
-https://10.88.22.18/svn/SFA_IT_CM/SFA_IT_CM_Workline/01-质量组/01-测试/09-测试管理/01-测试周报</t>
+    <t>ASMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机组资源管理平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航班费用审核系统</t>
+  </si>
+  <si>
+    <t>资质管理系统</t>
+  </si>
+  <si>
+    <t>s_foc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运作网</t>
+  </si>
+  <si>
+    <t>sfa_uld
+sfa_activiti
+sfa_sms
+sfa_bsc_web
+sfa_mesms
+sfa_fcmwidget</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>https://10.88.22.18/svn/m_ipd/doc/03.</t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>航空运输承运人飞行品质监控（</t>
     </r>
     <r>
       <rPr>
-        <u/>
         <sz val="11"/>
-        <color theme="10"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>FOQA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>项目实施/01.分析/15.承修商绩效管理</t>
+      <t>）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ASMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机组资源管理平台</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航班费用审核系统</t>
-  </si>
-  <si>
-    <t>资质管理系统</t>
+    <t>运行风险控制系统</t>
+  </si>
+  <si>
+    <t>GHS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAOC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAXIMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crew Portal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归档History</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -552,23 +607,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -627,11 +665,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -646,11 +683,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -954,655 +995,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="2" customWidth="1"/>
-    <col min="8" max="8" width="56.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="16.25" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="31.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="36.5" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="56.625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="16.25" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4">
         <v>1189494</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="H2" s="6">
         <v>42957</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4">
         <v>848912</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="6">
         <v>43110</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>338321</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="6">
+      <c r="H4" s="6">
         <v>43193</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4">
         <v>1369205</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="D5" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="6">
+      <c r="H5" s="6">
         <v>43117</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>1349781</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="6">
+      <c r="H6" s="6">
         <v>43104</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="I6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="4"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>43189</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4">
+        <v>1367627</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>43189</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1367627</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="6">
+      <c r="H8" s="6">
         <v>43109</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4">
         <v>1369224</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>84</v>
-      </c>
       <c r="D9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="G9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="6">
+      <c r="H9" s="6">
         <v>43082</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I9" s="6"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="4">
         <v>1372947</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="D10" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="11">
         <v>43202</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I10" s="6"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="6">
+      <c r="H11" s="6">
         <v>43161</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I11" s="6"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="6">
+      <c r="H12" s="6">
         <v>43109</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I12" s="6"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="G13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="6">
+      <c r="H13" s="6">
         <v>43129</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="6"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="G14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="6">
+      <c r="H14" s="6">
         <v>43117</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="6"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="6">
+      <c r="H15" s="11">
         <v>43201</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="6"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="G16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="6">
+      <c r="H16" s="11">
         <v>43201</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I16" s="6"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" ht="99" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="G17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="6">
+      <c r="H17" s="11">
         <v>43202</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I17" s="12"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="G18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="11">
         <v>43200</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I18" s="6"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="5" t="s">
+        <v>97</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="6">
+      <c r="H19" s="11">
         <v>43104</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I19" s="6"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="G20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="6">
+      <c r="H20" s="11">
         <v>43201</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="6"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="6">
         <v>43109</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I21" s="6"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <v>43096</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="G23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="6">
+      <c r="H23" s="11">
         <v>43202</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I23" s="6"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="11">
         <v>43201</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I24" s="6"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="G25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <v>43111</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I25" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="G26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="6">
+      <c r="H26" s="11">
         <v>43200</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I26" s="6"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="6">
-        <v>43155</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="1"/>
+      <c r="H27" s="6">
+        <v>43124</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G27">
       <formula1>"code,code&amp;doc,doc,　"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="H4" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
